--- a/docs/collections/50nenshi/metadata/data.xlsx
+++ b/docs/collections/50nenshi/metadata/data.xlsx
@@ -9383,7 +9383,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/1016bb90-14a5-289b-51c9-515d42398dd3</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/41f8c47f3623b57783ce4d70008d970d7fcef375.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/02a8e241b8ff1a1669e47a9d85cbf6d8ec3ee84c.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542303</t>
@@ -9428,7 +9428,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/77d3faad-78b6-852d-6909-6ca6c55001bd</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bb4a768465a20504495af9d32b71e8fd78e9e312.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7f2136863757cf5ae424b455f8f2361775d26da8.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542304</t>
@@ -9461,7 +9461,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/ffa4d248-88f6-8f34-3b6c-585288f171af</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d8ca49159f81b3a17516f21b9683bfc64b5f67a2.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9f6510b0df27fb5f4963bc2bc753171e5a984976.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542305</t>
@@ -9497,7 +9497,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/e7255ab9-0b45-286e-5ff0-7a7aa6342c1d</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b84d4df292d907ab4c92147e09d4254648a75ac6.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/329d01f8ae511ecc645a430c76ab915531d45ff3.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542306</t>
@@ -9533,7 +9533,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/c84c0938-201d-2fad-1717-ccf8eefe65b9</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3ddfa1fa929c98b28fa5abee7b2e87bc10ecd71a.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/95f3f723b230bef2a4b88f1d0a0b558207fb4b7a.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542307</t>
@@ -9569,7 +9569,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/3585007e-85eb-7443-3267-4486fa5e295b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bc049df1fc5c83f68c02b46f3172115d21c0ecb2.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/71a573da9fc8b28c7e00d084caca890c8b8d00e2.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542308</t>
@@ -9602,7 +9602,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/9a761ff1-2699-8b10-a0ac-beb6796f3cf3</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8707bb1e8d6aa85b73e9df530125ee54d5b4174a.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/92e0d0cf90f32734404ac6499ce23e45a8846c8f.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542309</t>
@@ -9635,7 +9635,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/0e4df564-13ce-07a7-0cd5-3217f81d8304</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c3d8018be8f2c6395a6c438a6f3434c455d0c70e.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5996251c502b50118de8d10d51966793efe16113.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542310</t>
@@ -9668,7 +9668,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/0aa3a4a4-8bce-319d-2a59-55e79b291e9c</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3b62b0214a01eea8f8eb1b9c39abb7de0417eabc.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7a5b06f6ea72d764eb5fab0f94a488ec93c3f11c.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542311</t>
@@ -9704,7 +9704,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/393461e8-986a-1c7e-6e0a-a62b360d5742</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c7a07b2f84ea1d35a04cce383f9025e6527f37a8.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/977627226d5ac84a69f193ce3f5f07268cdd31c5.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542312</t>
@@ -9740,7 +9740,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/32cea963-5a7b-05f3-8d48-29af4f8a2a95</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/50e92ab2a619183f6e8c40063c33166ce3f84965.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ee3b5cd2b1f93a7fc5a0ddc01eebf20c9a74e343.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542313</t>
@@ -9773,7 +9773,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/19ceed38-0126-5bc9-a028-325dc40b8a23</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/fda1e1a37ac30249d5c6eebd8bb340b1a4745116.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f72d91a9cb5c97444aeabb9f322911810ecf31f1.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542314</t>
@@ -9806,7 +9806,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/696f0938-1907-6af3-9929-8cb55e136ab4</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/36eac5f28cef57882103392980395bd334a20640.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/eb4eb26dc4a32d92f4232d2566f6c5e59f63d91e.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542315</t>
@@ -9839,7 +9839,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/af516583-5d54-4efc-3b65-6d370a738f86</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/75b7861c05f4d44dfb6ef9302fbb680c3f69bd1e.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4ebad934070bf9a5a37db036585f5036dd8b5d54.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542316</t>
@@ -9872,7 +9872,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/991af795-5e82-6458-00ed-cd019c274a28</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7806d74d3a22ced47b482ea4ced702a864a9e89b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7ea8d222e83fe0dc573348cbbe42f9e769dce50c.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542317</t>
@@ -9905,7 +9905,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/06f88734-19a4-1dd2-6f26-ca04dbe2a374</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/571d53ceb2ec824b87858bdb0725e1dad8755989.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/affff8919266a04b064cab24db47d6abe0851bb8.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542318</t>
@@ -9938,7 +9938,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/f5bbaf9f-78e6-78e2-2465-4bdc65020cdb</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/60ce17496925e9bcd2d8707f475204fc9262f5db.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9dfe440bd9df6358f7b3ab85c9f26f55174eca8c.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542319</t>
@@ -9971,7 +9971,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/c56d6f55-9ec6-5fa0-308e-bba5cad01fa1</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/46dacd1f3f8d33d0abdaa0399a2b3ade43eb0643.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8af8afef63fd646169d6e161617ec62a13417d6a.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542320</t>
@@ -10004,7 +10004,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/7ff3b861-8f0f-66fb-1f27-ed71360d16d6</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c9c70e95a129a3b8c895f967b2b829ee9b8dc28c.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b12ec14fad78dba72bd6c8703b49c2b09ccb4001.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542321</t>
@@ -10037,7 +10037,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/5fb2b1d7-6266-3734-2b97-ff8cedcb84bd</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7a0f844c0dc26d15cf850e3ed898d26eb81bb478.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/205f314e017fe4929dfb8e1aee85a3490c63dd23.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542322</t>
@@ -10070,7 +10070,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/74a61dbe-53e7-a436-90ff-be16f9570c46</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/48523a102dbd6d6090eeccab0ee872f7e87b2c61.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/879c5f63d1d95f206bb58df558b174b021a8b4ea.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542323</t>
@@ -10103,7 +10103,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/170f605e-a787-34d2-08bc-7395d8c69657</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8cdd9a70751400ff3dda8a0059e232f19f88a8f0.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e77e9e7c9377148bd0c51daa33a0acfd49486623.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542324</t>
@@ -10136,7 +10136,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/1ee3d58c-5c58-1e36-20df-3533dfe4250c</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f62580022682109a34158138c2109f44976e0338.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f8fe7646095856bcb8dbe3ed91220eb0cdc4d04d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542325</t>
@@ -10169,7 +10169,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/bf4e18e6-5fd0-0a0c-494d-a736780d60b9</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b1cc21750881bb53ef485c7e8b93ba74a501ab36.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/dfd2da24bd8dee250af52f2d7f6bfb505e37a7ff.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542326</t>
@@ -10202,7 +10202,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/0e0f4274-0f1f-4509-5914-6ad2246201a5</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b69cf696ecfbf8e9ed4c3cbd3d082e6178e8c20b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1ae0631e49e8ff8649d7328639e7431f9b365a3f.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542327</t>
@@ -10235,7 +10235,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/0e1e2094-2576-0fc2-0d30-cc80cbfc16e9</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/84c8fda7304e293c1bfc8a1e5bb7a5a9451c764a.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1ace3d6fb18674f2a354c2f16bed369abf6a9a36.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542328</t>
@@ -10268,7 +10268,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/0309e3bb-9ad5-34c7-2013-01700a78006f</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1b1f40a9e125a7383b1afc0dd1bb2148bd996146.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/96c7c158e6639a5d1603e66628a04e81a7267465.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542329</t>
@@ -10301,7 +10301,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/5b9f663e-268f-14aa-1482-1694f1c11107</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/27639cc8eea16139781d45cd2870df10f46dbf00.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/31521703b66d76a3ef1468ee7c9af203175138b3.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542330</t>
@@ -10334,7 +10334,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/14b2c7b3-1c26-7990-3bc1-b6453b6198ea</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7daf7695e0c3e161382207766503183f61f0d9c1.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/eda30a92a1a3bf7984e3298c7e38d3328779e051.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542331</t>
@@ -10367,7 +10367,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/50836da4-689b-673a-2a56-69098ccb0e70</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8a77cb021abb93f9e606dbe644392067bb24c222.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9a9f410078142585fb6d5a89d71d5e15692cab83.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542332</t>
@@ -10400,7 +10400,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/fff903aa-42aa-21e3-227e-5332889a8d81</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/45090555efbb08951712ceec83a466626e5d37f9.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f4d20a3930d421908b85866b60a7d9c323015c4f.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542333</t>
@@ -10433,7 +10433,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/0edca39d-43b1-6f31-4e28-ac8a35138feb</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/258c69d25afae843befd27969659954f8a111e7e.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/42977ce325f4dc587b1fec0a940bea04d5b94dba.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542334</t>
@@ -10466,7 +10466,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/f83050cd-4fe3-28aa-9488-3ee1257119f8</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8f7199b87e5c8d2caa92e13777481b4e5a8d71ca.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a21a1bc0af551b29bbdcc8fe8c9779cb5f534418.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542335</t>
@@ -10499,7 +10499,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/6e321006-6be3-493e-5d21-c5db852a082f</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b3075a7638bd10a0b284d9b6ffe340547a76f3ee.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c359df123d278208aa9202ade8563a06a7439920.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542336</t>
@@ -10532,7 +10532,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/527b450f-1878-1feb-3900-98e2354f027e</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5d45eab9f2233c5ccffc771a0275d4a9654e8c96.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/96d55e62441843bb9d6a41850b7871149d5fc016.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542337</t>
@@ -10565,7 +10565,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/e455ca1d-4503-6542-595f-4f23c5480ed7</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4d87c3fd554a497c00d1cb7820e483bb24ef7b0b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3d6a5d8337e2055a4d4f8ffda64b549579437551.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542338</t>
@@ -10598,7 +10598,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/00f38738-4fa1-3394-7f6b-9393e6af67be</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d2b40a6a6c7ccd5c876da03c5013b422f336ecab.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a0fbcaf2e3e5b409cacdca892c1d66647c20c648.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542339</t>
@@ -10631,7 +10631,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/187abd0a-9cd8-09c6-5579-0717e2082b34</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ff46460e226e876443db1d2f0b33e35cb5062d10.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e7677dc6fea38ec121b70a1b733b0256f31a5f08.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542340</t>
@@ -10664,7 +10664,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/c5b0d6e9-558c-9ad7-504b-2360749d38e5</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a037bd13b9e342225e312d82ce2cebb831f3b9d2.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d76cf20fb0d4cdce17cf9218defd382aec2b1a32.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542341</t>
@@ -10697,7 +10697,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/36a3d2be-7c02-9fb1-8325-79f6af2a216f</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3860abc86355b4aed9ccc4b0dc17352d346dba5f.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2402a3ecbbaaa8dbd7846cc278d6f88c43357880.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542342</t>
@@ -10730,7 +10730,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/5dac8593-094e-40eb-a1da-dea364673753</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/dd39790db79a891f0a7d8dbdd2657f2d82ce8fcf.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f2045846caf0d18883d5109358e292657b42d6e4.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542343</t>
@@ -10766,7 +10766,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/3a4d9e43-32eb-8d02-122e-c1f27c990e0d</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cb18ec9374b79def627d2eb2e530e70c22f09c52.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ee1e5f049cbd418bc79c559882de82aecd05df7b.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542344</t>
@@ -10799,7 +10799,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/d9035bde-4d88-83aa-0867-a01021f38aab</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cc0a1a08bef94a6bc37dd3f1f07f3103b41b8f0e.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b534dcf18bda21fa39251a1b14d1a36561895c39.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542345</t>
@@ -10835,7 +10835,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/87157893-2638-6f56-7391-4280db033ba5</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b1a81141f6ed600f13cc27e8ba35d2ad3d01bf73.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/196f57b3012c8b4d61ed81c9d688f5becf5f022d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542346</t>
@@ -10871,7 +10871,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/6f9b892d-284e-5b0e-a630-938a82d18e89</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/208aac9e043a1623f0032a878b7c63de421529dd.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/36c0f7ee238cb3ed6484efad6d3b3c62d78d623a.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542347</t>
@@ -10904,7 +10904,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/5f2e081b-93eb-731a-8bca-391e0ebd9392</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/29318d5c85c326b70455ce57da91f29e98848463.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b0b80c9b0f15bd3d0b662fae5fa7de7cb6cebe92.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542348</t>
@@ -10937,7 +10937,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/bd021f8a-88f3-12fe-959c-f889967617b9</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/19e1fc832d0731dff4e20a99878244a578d07975.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b5242c2d780fac722272c72eefd26e95948dd22c.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542349</t>
@@ -10970,7 +10970,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/f37a0d79-034e-9d79-0cdf-638363a7a0a2</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6ddd710521e41ab350b57426a0fdf26dcb81c1e1.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/293e7f40e60907a25192544ddad195c88841f8c0.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542350</t>
@@ -11006,7 +11006,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/7d0aa161-5d8e-1925-805f-0b27d5289e1b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7bcd496cb4e8e3d67e881fe77b25657f34c94363.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3eed559ab4379d01b81a00db98bd41b7c2445db3.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542351</t>
@@ -11039,7 +11039,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/8454c112-8f84-9ef5-19c1-9c4ea8bb7f09</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b55ed786d868c1f9acf88c1f5edaff4657beeaa9.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/63331769931e7265efee9432aaf19b10abd6dd80.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542352</t>
@@ -11066,7 +11066,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/5ffd5731-5df1-9527-934a-c4a823f41df4</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/03e07a03e4d0502c3605a55d4f9dd4bdb3d6549c.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5d1cf4c248790d2ec39dcf0e8f566f57fe18f943.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542353</t>
@@ -11099,7 +11099,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/3d791c29-2ed0-5657-11a6-c325cd091dd2</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/dbdabdde9ed530401db1e146efb88f22bd338a61.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/04a1bc71ef1cbb45a7a690380ce6ba160f391429.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542354</t>
@@ -11129,7 +11129,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/8304ff64-a119-80b0-1ece-abc0e6ad632c</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/900698420e9b6230c72712e271e95f6b186f5399.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d10bcc2b16f0e59eccddb09695ad8a4787db9095.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542355</t>
@@ -11165,7 +11165,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/38c40c7c-3bd3-7949-9689-480812b1766d</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/528de74ae33e47e661fc1bd8cbb62fb088a68e5e.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2cf77e99d744d6a3d2227cf1bb0f9012726927bb.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542356</t>
@@ -11204,7 +11204,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/e655eab9-535a-90b8-22ce-ac9a275aa4f7</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6b34255d86c94747ac67e90171e9cf0f160db6ff.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b4d4f310456cc59bed4e3f42c274cce557b72002.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542357</t>
@@ -11237,7 +11237,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/c9c765af-33f5-034b-0923-f75e275389b6</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/365040acecc916aa1f3c216c0be1991957601c2b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9784ee01cd7e80bcbcc0a3bca1d6cf7788a2c4e2.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542358</t>
@@ -11273,7 +11273,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/6f51e423-743b-870a-6530-518fc979a311</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5ce228391633d419752ad9f36e6803ea010acd15.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/be39f9cdcff1ef29a4b0c78790ddd80ad620b78d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542359</t>
@@ -11309,7 +11309,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/266246dc-9cda-3c5b-0eac-3fa03a513964</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/895ec5f6189bc7d79fe3573c626dbe2fd275f1f2.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d174fb21bb934ac6a714b03da82dc83b2b1e454a.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542360</t>
@@ -11345,7 +11345,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/e9d8d451-20bc-03e7-877e-13c9563f85d1</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/915fe79493cb73a8306225b6142a5135608594f5.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/aef54514f555beba097bacdeb2f9929aaa2bcdd2.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542361</t>
@@ -11381,7 +11381,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/8a8c5316-3366-9ece-1630-16c5dc1d2d46</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a972fbc2cc38a8e0b268e067892642ba5da4fe27.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a984e2799f41eb0acc45fbea37d0091c769dc4ee.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542362</t>
@@ -11417,7 +11417,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/c98bc0c9-3731-0b3b-71a4-d7b7abb463ee</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/dcc77986ce40b377836fc91afaf1a162033e109f.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7c198954cf2efdb87b7347336522da928b747523.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542363</t>
@@ -11453,7 +11453,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/7041bcf9-7630-9600-78af-781dbd54114b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d1c59005ef8a888def48b8497061d4aaac302db3.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f49bb94feefeb774f8723688dfe9a4a7dc35edf6.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542364</t>
@@ -11486,7 +11486,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/8947d294-9f83-42a0-9c8f-8cd9af239551</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c613921d8172835566efcf77a5d707dfaa0c60a1.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c3a218a68380fba5cec0bc9a84b5079b65ac9ee5.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542365</t>
@@ -11522,7 +11522,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/0b85dfed-6c8d-928a-3ed1-a865a6544c8f</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ceae2e78f5ae797bc749d704e021cfe0cd3276fe.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6bd6e7150653038a09b6599c01d2e457404613db.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542366</t>
@@ -11558,7 +11558,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/e8e9268a-3312-9fd7-3bbf-f47b22cc70c8</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8e37ee5faad85cc81a91309dc7f96fa56eaa21df.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8a9d4f1f32c481e5772defa87b838b83b4404c3f.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542367</t>
@@ -11594,7 +11594,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/52e5cb7f-5bd0-9bc3-60fa-4e4f19731969</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0566d23756bb0227c5a3bf0d6294d6c0c313d0d2.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6e27db6c841e70b520cd7cfaf27f3afa3b99a3cc.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542368</t>
@@ -11624,7 +11624,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/eabb438d-6704-98d1-845b-3865bddc8a8b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ba5389b7886de62af13f93757ac0a19d3a201090.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0bca5ef56c72e0d25114d716c9cce8d882460dfc.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542369</t>
@@ -11657,7 +11657,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/3c184a2d-812b-7931-13fd-8598458f2b33</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5199e339ff7868681ba052fbe68bab1cb2b17dd5.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7056ca0c6c8558d58e5a7e170cacc52fc880410b.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542370</t>
@@ -11690,7 +11690,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/96f07146-047f-1500-6dc8-2f7132e22775</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3349be0fb7a9eb3ec6ff29012e3980eb538005fc.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/63003c3f47b1a105dc77b5a089d9056cfe51b31f.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542371</t>
@@ -11723,7 +11723,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/8be6736b-9ddd-6437-797f-63549bc42e22</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8500df65983981dc423403c6fdcca8d95eba6e5f.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/035ee169a4d28662629b21d447bc4a7b87fce3e7.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542372</t>
@@ -11762,7 +11762,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/16cd59de-16fd-9d5c-81d7-d1befbbc16e2</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3b653d731a8e9460efab3844a812cd69bff308b3.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e3743a16a8b7a3284849a054355fb084e39712a3.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542373</t>
@@ -11795,7 +11795,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/e1cec7f0-0d58-0f6f-4be6-1058d45e8f56</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/81c1f3ebe045ec15ea570f16558d2269ef914718.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e0ab6e7ecd3356def4a365c0645b1353f3b8c8b7.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542374</t>
@@ -11825,7 +11825,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/107c6bec-347e-7a60-4287-dc6336da511d</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/38af8046ebab653c6fcbdeffabd7648e4a694b30.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5ce33b3fa0f50cda68a6f6d2ba927feb06d41990.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542375</t>
@@ -11855,7 +11855,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/0103160f-2efe-a119-2613-f32d57b21229</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/08201d1d8071173fef16faa6fd99deff60cac4cc.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/12c2572dffff102f1e121095a2696e92c958cfbd.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542376</t>
@@ -11885,7 +11885,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/c92d2c29-82ca-65dc-6ec2-fdfbe4639df7</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/17c9060447529717c8e73ef9bb1b1326ec3b20aa.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8df79051fab443a282eac3c3efe9f97bb6f5bb31.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542377</t>
@@ -11918,7 +11918,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/5dc7bb91-8fa2-02d4-843e-72fd6d457f6a</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/207f49f5de865887b7d273d74ecfbf48c4febc64.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5ccc5087d6ed26139f1238d52534e06aa8dcddf6.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542378</t>
@@ -11954,7 +11954,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/50ac7110-4bbd-9266-2bd2-c20674b48735</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/468d6bc1c7ca705d8d6cab3a327129a61d4c2d0a.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7a70fa599ab12cb8b2a871da034e2f30fc4441a8.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542379</t>
@@ -11984,7 +11984,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/f4baf754-288d-a689-4a67-b487e66806f2</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9a43dafa0427810749e88e87bff0daa8d75f05ad.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7c9ea7619b9d2d49491ac73557e7ad6139aac784.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542380</t>
@@ -12017,7 +12017,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/5089454a-1bca-1700-05b9-56a4178705f1</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9916ad51ad01f7931e461ceabcc64c7f03fdcd66.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/11906bc1cce235505f96d75b4e6b5e6b040a05f3.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542381</t>
@@ -12047,7 +12047,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/40f06ad0-707e-9085-1cae-21ce0cc42a9d</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3e75c047b0b017cd072df70fadf83e9a5cad2c84.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/97228d5e8b238a287944d0b7f112e43627a5ca05.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542382</t>
@@ -12077,7 +12077,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/d3d0ef83-0f88-2ce1-3cbf-02fe70b54e6c</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/86c53e194223a4fdc7a2fb029d532acecfeeddf3.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/02397107e486032eb62ae8392407c4d6348c05f8.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542383</t>
@@ -12107,7 +12107,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/2f46b638-75c0-48d8-7eb0-7a27ee5019bd</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/720a6afcb8ffe29d2ec79caba318cdbcf8331602.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/12c30a7c9b37d9a7c319b42616a7cb67ebd0f731.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542384</t>
@@ -12137,7 +12137,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/3352d6e6-7610-0eda-18f3-640a16bd62b0</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c5bac8494d2aa1058c8c4266788f8c9581cc0b8f.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/80fa95e1314e9907690527e07ec36ef8c3b7534d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542385</t>
@@ -12167,7 +12167,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/78c6c91a-906b-7252-4a12-7ef13dee8e8a</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/119c2720d64ab279dd35f8527023061b185fddb0.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/099bb0c6ff62852e3e0284208927454bdc095e77.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542386</t>
@@ -12203,7 +12203,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/3ba0cf71-0a8b-8623-87e9-d55d83ea06ab</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8178913844c321fcadab4e249bcfe9f06a2dcf78.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/878e4aec51a73da33bd2f2a9fca7f3eaa28dc9a8.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542387</t>
@@ -12233,7 +12233,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/89d8664c-5a8c-71c7-4880-74d2e34316b0</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/59cfcf16bf2ed5b86c7ca3385b1548762c175eb7.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ffdfa689c3e420d29b4a162c0e4c04e54caccccf.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542388</t>
@@ -12275,7 +12275,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/6a997c4b-2edc-3607-8ed1-56186bf80f7c</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ca3d4c118a5f2d7528fb82416a7cfc03cef6925d.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b88b35c9d9ed11452cd2782c97184fc8a2c34c4d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542389</t>
@@ -12305,7 +12305,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/c4d2efca-447e-476a-93fa-0791fbb705ab</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/580d2cb9cfec77ab4d891efae752f8fa7aec4f1a.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/89cd65b4315413fdf464ef7cea5a5b1ee4a46504.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542390</t>
@@ -12344,7 +12344,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/cdfd9fd6-375e-5765-7f6e-445de970412b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b3ba2b7b24c693ea2dc47641e977f4fc52133d16.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4b160c56c9ea2ef9ff3c4dc85318eee883172346.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542391</t>
@@ -12374,7 +12374,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/fde5a7bc-22ad-8d39-6682-c3514d3534d7</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e720f50bef775610cf5ccafe6a8d386e5a1a4341.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f156f817e93cd852deed482ff10b8e573f18f9ec.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542392</t>
@@ -12404,7 +12404,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/60d15197-086a-331a-1a63-180ffdf3959f</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c58f79e91880437edf8bf75df1e2a13275c73db5.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6ea24d80199ceb5a75167412f0576cb9854dcec1.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542393</t>
@@ -12434,7 +12434,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/89fc1b85-68c7-847e-82b9-3d4be8948c66</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a38141e93d8546a9c5c94a3acac23bc2978b303f.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e3d08c2874524346c7954c155d4b89d4e994c1de.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542394</t>
@@ -12464,7 +12464,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/f517d192-4c75-a76a-4bb2-f04e8bc5166a</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b3a2d1d6f7cc317a746abffccfe2170b8d38f59f.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/76f9ea342ca22949265f27415ade9d6d55447978.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542395</t>
@@ -12497,7 +12497,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/005c9073-4807-2db2-8b57-ed7bc1b35596</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f4bccccbd0878cee2d90a9e97869ef285e2689ad.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/25383c0dad02546329ff8f33b4fb48cffe28a25a.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542396</t>
@@ -12527,7 +12527,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/d2f8e4d5-a29b-7519-2021-356e20441076</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/343cbbd302e634011168237081f3bb8892bf9bc1.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7c44e96f654672a0edc2d01693346a3807c975f0.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542397</t>
@@ -12557,7 +12557,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/d2111750-1b51-a445-87f0-054c5ebfa3fb</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/347f709322fcfbc1151c07d9cf000a22e747fca6.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/612416791bf85ab48e1293d10fec5107c892097b.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542398</t>
@@ -12587,7 +12587,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/fa0abff1-279a-2f75-4123-6dc9e24c9f8b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bbc8801c0ab88064241b1025ebddcabbbc57c46b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/923b38bc83296bdbe60d2699a1d21ff8ae9eaf96.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542399</t>
@@ -12617,7 +12617,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/1d041c42-4659-1bca-67d0-6680ced51c5f</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/14d74c0a86e275c59e5e4781bae149d867b816b2.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9402b087c59034efd8f621d0c9ec5c97fc7803bf.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542400</t>
@@ -12647,7 +12647,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/eaae77d7-057f-53e8-30de-60727d4c7274</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/65249cfe02087bd1b8539941a0e992ee34ed31f3.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3b708e7d2363d6af38bc30e8b8b1679c7851392b.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542401</t>
@@ -12686,7 +12686,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/d9a8f4c1-9935-9c9f-2e6f-0e7ea783213d</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ba0e8d2f861bc9b15ae76edc88fe14b224276acf.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/16a6cac383463dd9b2d26035636ad8497d868b7d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542402</t>
@@ -12716,7 +12716,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/b1404cd3-0886-35f8-7e3b-2ec520f0065c</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7fe1e29fffccd5b8ccfa05b805e61de6fbe6876b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b2ca916a01f377900f1f6c8fecba5acfc1d71797.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542403</t>
@@ -12758,7 +12758,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/2f1efeb9-6913-2562-a2fc-27613bbf810a</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/48b562313d33d3e9fb8f36778f399d6cad758ff6.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8f1677a445fd218278094bd992c9e6fe412a2cb1.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542404</t>
@@ -12791,7 +12791,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/14e256e6-076e-01ba-a549-eec8b2b6390c</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ccb36d4742d202eb400dbda53b46a690ac3388dd.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f36aadabd0f26b4a26b784bddd34b1b9696e8649.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542405</t>
@@ -12821,7 +12821,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/7f641ece-479f-09da-06ce-d9e1ab6b384a</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/60caa6a0320d450677ced13c1781f5102c053218.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/55a28155eb5b4e61136586c7005c5ddaf15058ce.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542406</t>
@@ -12851,7 +12851,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/1fc3f259-9a68-3044-3383-c43a866e9e51</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f8a51136e4ae351d49606b5cb086aa1c3c5ef5a6.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6d727bd960231873f82520eff0f789b6684b23b0.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542407</t>
@@ -12881,7 +12881,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/3980d7ad-7266-72d0-01ad-012714f88448</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/46b9378341a5d7c0f7aa5151ba8e151c54a86e62.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c5be20b9dc5cb1a0bb08faa5761d0aa67c2b2fbc.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542408</t>
@@ -12911,7 +12911,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/ec01847d-987b-7ace-8ffd-3b2c0326765a</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b5de073209b3e2ba9345687f4426a8d991faabfd.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bb662aa44b1b440f564f9f0a586d4307009aae05.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542409</t>
@@ -12959,7 +12959,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/9a5438fa-6c59-7947-27b3-617300985e71</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/045b1bc6f8b662d32e15be53123d3f80da62832b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ce3998c3bb6f6f3ed1342c1692e4bbae4e9ba7d6.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542411</t>
@@ -12986,7 +12986,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/96b025d9-a066-171d-70eb-62720a908e6f</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ca183c3b6b757052241229ca0005c9ebd0c8b5df.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/004dbabe44b061a69cc9d68e8a487b1235e8379d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542412</t>
@@ -13016,7 +13016,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/3221f1d7-7c41-3178-6022-f40ee8083c00</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5a48fa158f4ed7c9aeade3465655a66b8498ce64.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3eb3a0a4632fc4bd78d3761397ac814db6d02702.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542413</t>
@@ -13043,7 +13043,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/02ac9584-819d-45e7-6242-7345029a597d</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1fa64e7673608c8f781914e30c3569ca83091ea4.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/749ded5f5b58db51714ca24a7316e78ddccce6c9.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542414</t>
@@ -13070,7 +13070,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/601e69c7-4494-298d-6f7f-5ac927740bdd</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2bbf7eb56f562e19b316b88a56e7432a48b459ec.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/007554c39e3997bc5e89fe939ce9b33b2f2a9300.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542415</t>
@@ -13097,7 +13097,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/b4d10509-29d9-4057-7380-343eb8cf1ead</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ad37f6283ed682d8caa524ab0343a9e8fea5cdd7.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b471f585f5530ac2dc2879c3c143b42104b45e52.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542416</t>
@@ -13127,7 +13127,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/7f7f600f-1809-1100-6722-6a20340d75fd</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7a58e6a59de45d50bb79b427f13a437f5f66ced8.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/210823e5d7fe3792ed390e5335755b4777caca32.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542417</t>
@@ -13154,7 +13154,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/c9f95d01-0636-4353-1af1-c331fa9f51bd</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2bc8a544ed29b90064eb67c20234c3a35e5cd5ae.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d6911bd16ed32f99706b53bf1a16e032d6b4ec61.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542418</t>
@@ -13181,7 +13181,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/88c7ec4f-495e-1824-6fdf-39e7257000f7</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6d73e9f91ebd8bde5ceb92a5dff329bcfe1269b2.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/eca4916fee884c40f3e6a234657961ebdce33d98.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542419</t>
@@ -13211,7 +13211,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/53093b3e-1d6f-805c-27ab-c9c75ab9899f</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/18196f1fed0e1926be619b3d407ad18cf8506322.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/501ed970b01d293364341d2dd99a9766a5a9b29c.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542420</t>
@@ -13238,7 +13238,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/698b203f-08bb-3504-90ee-fb2d24ba9759</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d4fe09c79d0ee17112175067fae82e801355290b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0ff3ef05b68eae4d5a37035e4bac2a1c428aaf32.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542421</t>
@@ -13268,7 +13268,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/d93fe12c-5e53-7c58-2b06-e1b1a9b55a4d</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f99b63766b142f366ffebd82af6e0ba442588ec9.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/026905c40bd6ea12ba272842180c17d563c4cbf1.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542422</t>
@@ -13301,7 +13301,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/38fd9035-4c97-5f63-387d-d33822d822ea</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a35a568815e787f8467b7771837fb9c15b85bb11.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/04f45dda15cea7b004c5e2ad6c8d41f73764aa08.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542423</t>
@@ -13331,7 +13331,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/6cc97dfb-2f19-1383-219f-7a9c2fd96b8b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9b78a7394b062d8a3221fa851e7527781d145b22.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7befeee6a7daabfd4e0a30e4708ca65b52fb6438.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542424</t>
@@ -13361,7 +13361,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/8814a6a4-2402-6b57-32b5-17ff441d730e</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/761aee3d9eb35d3ceb2c362555571b8aaf661b3b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d445c5aeb0b365604610ae00ce3b4e4759c7bba0.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542425</t>
@@ -13388,7 +13388,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/2a4b6127-3caf-5b0e-6377-a799e5be18dd</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bec66bdb48f1e5f848566fd7ada4617e8ab0cf45.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f69dfd934e45ea97c7f662fe139b2315659e5b1f.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542426</t>
@@ -13415,7 +13415,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/09cd0e3e-45df-0c8f-3477-1a7e7cd552f5</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/77dcbff216bae110b942072e79f07af06e6abbfa.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/947e6cc33277ffebb87d6abc7342d50759882c60.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542427</t>
@@ -13442,7 +13442,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/f78bbba3-838b-20c8-5cbb-95e7d1012939</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/19e28b08aac9b79164a4326b08c339e82d3e47b0.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e58709827d00223e66ef71a201b4bd0e931bce25.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542428</t>
@@ -13472,7 +13472,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/fe41aa2f-8aad-256b-4eba-439f93fe5ccd</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9cfbfe03ce7b4620642dd98941fb2e4a93341bae.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3bad374517c24102d560834755f10ecee5b81abd.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542429</t>
@@ -13502,7 +13502,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/042da0f0-6b6e-2787-7df8-656b258f7122</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/00429b0619d4b4a532eceeda00cf5a9f83ff9e0c.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3d40ccf7ef590fa52c35a613720339544d6d22b8.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542430</t>
@@ -13532,7 +13532,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/63f9b4d1-4e7b-5d0c-973a-fec604a16b1c</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e92fd8793c2efc6694c04ba14ca5c0e8d9e4c484.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ebc836316314e49ad787ec08df18d63056e5cc43.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542431</t>
@@ -13571,7 +13571,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/490e1b62-5ddb-a5bb-1be9-002c300485cd</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2e337ef13d04d83b5dd245d10732993a8fac1215.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/41789587d411a0024030a8e25e222618e55c3e72.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542432</t>
@@ -13601,7 +13601,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/547e3115-1309-39d7-9255-4a5a20fe92cd</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f9bb85f17b857b2907ea236c8952a01d9d30feea.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c43ca861d5620525c8e2195dcb99ccdd245bc9a8.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542433</t>
@@ -13634,7 +13634,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/4afa1f08-298c-4ed1-6735-fe282c670e51</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5222945e882941c213c657f46f7e0a2f713b19aa.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/fb2ee5dca4034315d768f4cb0179cc7f2d6cd839.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542434</t>
@@ -13664,7 +13664,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/08c40d1d-1a99-71df-160e-0874255d7ccd</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/50688958b0f15558f8a129cca85208105094a83f.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ab2d9a6a34581dd8c1ef8b7073a7476998d7a900.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542435</t>
@@ -13697,7 +13697,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/0f81a241-2fe3-0021-1dfb-dd42a4aa3ad5</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/050b5e857922806438f4ba6b28dd481ecb8a26a2.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/464b69b6946156655edaf659456186c310bbf877.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542436</t>
@@ -13730,7 +13730,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/15d3ac4d-916f-74fd-7463-9a5af68a594b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/80d3954da7101009d402fe969a37a841b7d83541.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8bf3f35df6ad43217435ca0d872ac72dea76a6a9.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542437</t>
@@ -13760,7 +13760,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/33037f87-1c38-4200-85f2-887fdf107f9f</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/92ddac5bc14f23362c53b5c81953c7af219599c8.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7eaaa0ba70f4df7bcbb2a7344bf4ef65c970ddbd.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542438</t>
@@ -13790,7 +13790,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/741b9ed5-7462-7868-4e95-7b27f7600592</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/127871c54f2845d0742b99c20e54b2e9dd188d2a.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e38c5089dc5169025afc3f57f8ced9951ab35104.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542439</t>
@@ -13820,7 +13820,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/2c5bf855-73f3-405e-5a33-132898d02c01</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/621cd2ae37d2b1cc5f2ef322e621da5cbf56bde9.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/203eb8b8b1a3e861d5b1ecfdac35992ad934c5ed.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542440</t>
@@ -13853,7 +13853,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/7f095fe8-0000-2fda-8fc9-c49406f9238f</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f96c9a02f0ff565ff97689996aadb834290121a7.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/af64a09a3a4d6a891d3e69ef697f8779bf801851.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542441</t>
@@ -13886,7 +13886,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/4ad16047-6e2d-84d7-168e-222331ca47ac</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1e478ad2f8948c6345047cdc271cbad6a43991e8.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6abc5966b6016325058c2e814a5ea235b05523f4.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542442</t>
@@ -13919,7 +13919,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/35d1a80c-98ae-9066-0e9e-5fef2a6f7801</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/769674307e9ffbfa99bc3e13388e472c01626d1b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9f5ab662a026bac3a6560ca3aff845491cfbf111.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542443</t>
@@ -13952,7 +13952,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/d0cf8fb7-7e71-8aea-4825-3be984e47980</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/77a0cd1d18b33443055f07a86cd79ed81574f587.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ae94d4240af038725a8bcdda3914801ad75fe7b8.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542444</t>
@@ -13979,7 +13979,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/cae03bbd-9d65-448c-0ed4-0f921c6e5686</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/08367b1298b0dfcf44d159557ba32103b01a04c9.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/19693375644c9a508ec490f0d3cf89a4365fd702.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542445</t>
@@ -14006,7 +14006,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/0c9f4370-888d-9b36-a69e-8635820c9033</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3a95bd39fd589d80f84d5a417e444fa05a4bd066.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/780f344cdb8da26d6ce06c9c259fc9c3933c3402.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542446</t>
@@ -14039,7 +14039,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/02b6f8c3-068a-8956-8503-203ca51220ab</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/db8db62aeaa65abe1a774570d90b52db93264b44.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8d8771f03444e16cab8e93c6cbd1ebdc1142b1d1.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542447</t>
@@ -14069,7 +14069,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/7d1fce6a-13e2-45e5-5dbe-dbdf33a57ff8</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3f07c07e14340dc87bb55a20b48b1872b3799a09.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a73b22243b917ca21bd421f47b82e9b7181d7d7c.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542448</t>
@@ -14093,7 +14093,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/4dae791e-47c9-69ae-2980-fd39e1683ee7</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ce6cca05904fd3772aa65b078e720634aaf8d65d.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d40e1a4801bcd75e9938f6dbcf9e7ccd9bb9e20b.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542449</t>
@@ -14126,7 +14126,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/faf136d6-4ff2-4b5d-4b2f-41c60d3a5746</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7a44ab565ae147ad5fb95cd8e085b0ed0df4d5da.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/29cd2a3f16e648438817140aea11e90ae0a0658e.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542450</t>
@@ -14156,7 +14156,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/0895fd39-57f9-447f-0a21-2151e7d74cef</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f034aafd90ff14f55c832b0d3676bc8e5f3a9e52.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cdc36c2eed936ceb704fc55031dd487a90cf0790.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542451</t>
@@ -14186,7 +14186,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/2b30678b-92dd-3b04-8653-74cc6906981d</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ad15999dd7a3db2c6873becfdd9b8f2b895d7475.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c8a4963cc353a278d160f24738ee203bcb28b83b.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542452</t>
@@ -14216,7 +14216,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/57fb49f7-5310-54a0-4dbd-687ccd136a26</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/296c8cc879184b4a65701ce89551d297b5fee5d6.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/264aba475815556d38f1903e1f9b43e402312d4a.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542453</t>
@@ -14249,7 +14249,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/ede82b09-50d7-61cd-9959-f35b779c2383</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e15144389b748601e4cbb0ea1382dc425027ee10.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c873287008668ad56d735b7b5766af4a71f1d8f4.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542454</t>
@@ -14279,7 +14279,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/e298238c-4492-10d6-1abc-696277f38ee0</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e7174b95446cbfa067806571c71809f3d0bf0ad3.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/81cd3dd51828d17f924d938e595171e91a2a6648.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542455</t>
@@ -14315,7 +14315,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/7dbd362a-032a-2f35-67e0-93e2c7371c87</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9af6f7e7978432b6aba52f1165c07b6d78df4ec2.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2c7ebe1902dbf535baf8cea43dcd8bfbe181c77e.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542456</t>
@@ -14345,7 +14345,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/4929309e-398e-974e-86b9-44d30197492b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/60ef5e5f9ea29a85807b0de62e88aac2e302c30b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f03d6bc716d05bf92bfc4dce68414693a86baf37.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542457</t>
@@ -14375,7 +14375,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/ef42ee6c-7e7a-9156-7349-36b54fc87868</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/42735167b1bfb2772a575b97c36b49e703f45786.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2d1bc2ec27b047630af23f008ba66fa674587437.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542458</t>
@@ -14405,7 +14405,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/b6c1c54a-1bf3-0d81-4fa8-dfdd3f36845a</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6c166576388a206af702718481f2095953920d54.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d541bdc890c656f7743310cce6f8744655c764ac.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542459</t>
@@ -14435,7 +14435,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/9e96d1b9-4f53-1347-661b-6009f6158233</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/89c8281d6fa146612294683aa076d5a051f45b9c.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d0a1df63cfe0431b24a3e0b4aee2277b6b7efd0d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542460</t>
@@ -14462,7 +14462,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/aed3d956-263c-3e7f-1427-15f0f3976afa</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4dde76664072661120474634a858132672be6962.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d3536edd8cfb4d963c56654d941c3b9c600d1a82.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542461</t>
@@ -14498,7 +14498,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/311db251-2701-978b-6e77-0a5545b66607</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8617623372b11f54767ec250590bcf0692a5cd19.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/341e176958916513e6e3e39b3aa9cd88e8c5d5dd.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542462</t>
@@ -14531,7 +14531,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/73d95314-9ce8-5198-3fd9-505f703b4e2c</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/549cd16eb0808c34cf7e84c52154a382ffe9082e.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/766f8dd828439f47df3b78fa5087d33f9c7abdfc.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542463</t>
@@ -14561,7 +14561,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/f3257938-8a94-57ed-637e-c560a6438890</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b7d215e0b03f782c2281c468706a7706a55c2a4a.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a73bd7f0d1a574d81d42c81274c231862188dcce.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542464</t>
@@ -14594,7 +14594,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/7764dcb1-2b28-453b-8133-1ed8b17f8fb0</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b556e11c43bd1bdcd23ac800b30848d46cea886b.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/386350bdb8dbdb4fd84e62621878c311ce223786.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542465</t>
@@ -14627,7 +14627,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/f8aaf5fc-6870-20a7-25b1-d252a3449ce3</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/500417b9840a989b23379a82323086481c6c42d2.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8aa5176a895d0dfc9062f60728a918544dc9c780.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542466</t>
@@ -14654,7 +14654,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/a2c46df7-54c9-2c34-3ba0-e9659ad05b53</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c54b10cee387e834b95142a06078cb85d73b104d.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f3e8c74170e26646c43dc3be217acc0e459146d6.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542467</t>
@@ -14687,7 +14687,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/a77b434f-70af-9619-a432-bfedd4694bb3</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/607e1ea0c87a223997fa422cb3249ba0a5f5cb81.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2a29778a1a3376c8faf91c94f7b1c5a155aef97d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542468</t>
@@ -14720,7 +14720,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/58c80884-05f2-0602-268d-a5ebdcd07eae</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0e5f5875be08aa8453e36f21c7ff626f6fc825e9.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e6b218bef025cee04e71fff1c959a2d7947d93d5.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542469</t>
@@ -14759,7 +14759,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/1465eedb-71be-26e3-4738-2b6886a87e6d</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1b2ba1f7509b88fa4da5f6ae5170a959e2ee2301.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/fe2607003ccd574ede4456b449d9382720937f81.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542470</t>
@@ -14789,7 +14789,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/08df27b6-335c-8c90-2f17-0b9df7a414c4</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a60a934034e10f0febc72bc7a18c795ccec981f7.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b345f6e8c123c7af7707dfdd55e8cac9e1a6514a.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542471</t>
@@ -14819,7 +14819,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/879d3eb5-4b2a-3e60-3079-07a54a9fa318</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e4532dd8324cbe1b710b6c2a33222e7e11ed83e0.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b34f9dcde061da383e7320522fe80773f308ac88.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542472</t>
@@ -14843,7 +14843,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/eb41c4cf-8b60-01e1-72ec-bd740cd069a4</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5ff14b675fb18020bf1029ac24efa667fece31eb.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/47bb6607d15b966eca4df478f71c64c8784ba3ee.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542473</t>
@@ -14891,7 +14891,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/274dd385-9275-a5ba-3951-509640d77ab9</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bc25652969c09d105b6b09658df61c54e21ef9dd.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8a2f269a02897c3f64e6f528ca0457c8dce7c1ba.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542475</t>
@@ -14915,7 +14915,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/bc2acb9b-7dba-7b4b-441b-52207ce878c2</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4aca549508989cb933ab72eef6783b63f3b0631d.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/752f6a241190caaf265e43b853b7770388c7389a.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542476</t>
@@ -14945,7 +14945,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/1df78204-7dd8-99e8-7fec-f9091acc01ca</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ab50c8960f3b1a9a2b7184b3ff38755c7debb977.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cf7a4c6995fe113354808f6e256c99f6197e85a7.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542477</t>
@@ -14999,7 +14999,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/7268892b-2cd0-8b2e-2cb7-85224a6ca6f4</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9b7ccefecf2ff6d422708e33133defecebea3d4f.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b8116c754a5d5e1e497ed3c8df5c7a107bce1508.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542479</t>
@@ -15029,7 +15029,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/31dd9acd-74a2-2f8c-38bd-61080ebf78a4</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d8e4476b31504bee51bba6ac724e8552267d0180.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ee9c1e6689d76911720e288b904ba13f77e2f7f7.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542480</t>
@@ -15056,7 +15056,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/1be6e429-0582-0b04-0633-94a872b68a49</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1362428843733909ed7fa1c381b6ee63788d37c4.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6a722e2d1427a2dbb46b21f2ae75cc60e64323f9.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542481</t>
@@ -15086,7 +15086,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/85bfa7da-5ef9-9ce4-0963-73e2326168ea</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e28615d6f88e7ae671e7a9980cb9523b160f21b6.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e0021f1d6bc77537ce3452258f07253379cd2fde.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542482</t>
@@ -15113,7 +15113,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/9169c05b-66b7-40fc-499e-4e0e99617530</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e7b91d3d7433c1d58f3aab4bb8507c4b87dda1e3.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ba3dcfd09b8d3d910c5aaa1b18e6d92409715774.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542483</t>
@@ -15146,7 +15146,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/184357be-254f-493d-7a8e-3ee2b96a9cf6</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/87e796b8ec8d39f851fb237ca6776db491db779f.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3b801fd39e3eea99922bc0d0507ef84aee839e2b.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542484</t>
@@ -15173,7 +15173,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/48c89d70-82d1-7440-1cea-2785d0ba00d7</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/af181ac4568ad7b94ef0d36763a273dd43ca3883.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/34cd89873b5aef93a7af93eaef7b357712ed662e.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542485</t>
@@ -15206,7 +15206,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/fe317064-4016-a778-3ead-11f93ffe5403</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f09e9dccb593652e701f77365a995d73d2b45722.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cd4d55b0cb16c3881bbd5704787b763ab12c1dd5.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542486</t>
@@ -15248,7 +15248,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/7eaa7eb8-155d-7420-a48c-a91fa6755194</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5c3f92b3930b7e7847172527da1a77221a5abf1a.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/45a68fc22ad0f91f21c8b3f8b3556fc0873fdcad.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542487</t>
@@ -15278,7 +15278,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/0362faf3-0e81-505f-0746-8ee1542a92e4</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8f2c75ead50e7cee5288e6c18c72dea565b70f25.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cdafb5be5c0077a075503454786b82194368f0df.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542488</t>
@@ -15311,7 +15311,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/2deeeeaa-0c02-4e16-1029-f79825db1cc0</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4c3d54f0792a0e5cc085c28b5f9950ccc0d8be4f.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ad4ddb32ec2ef63a3acfa7807fdeef2a95c844eb.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542489</t>
@@ -15335,7 +15335,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/8b2cded4-3897-0dbc-5bda-52f0be57016b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/eaf0f754c2b3ae317fb6e6aba5f623d2e57d5896.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/50074e21021c831776ea62a88f16f5dcc23ca620.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542490</t>
@@ -15365,7 +15365,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/61802c48-68a2-01a3-7ec5-3392dad0190a</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e7ed3a47fa9ebe5552c0280ed65c754116baa291.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d5363ce25da4774bc4f992d8f9a1a41be3872202.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542491</t>
@@ -15395,7 +15395,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/f81146bc-3ff5-4df3-54e7-7735bd7939cd</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cb3e30e08565b4361e57cf835253bab8da6584af.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0108f12023cc1d353a1ab97fdc10ceca981f001d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542492</t>
@@ -15422,7 +15422,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/7c8eee07-1683-451f-8f90-0d1785629955</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/7638bf3829a07c3ed14acf5da8b16cbe8a8194f1.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/81acb0c17df2a98c9e54a8e367e68bd0e9e40490.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542493</t>
@@ -15458,7 +15458,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/b2fe3594-69c3-0492-0012-875341a80022</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5c4e90249a78b71c1fdbebbcf3c724cf278b5499.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d79d53badd06e5fc8235338b22dd684c1dfa09c2.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542494</t>
@@ -15485,7 +15485,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/9e1b9f23-8c29-04d0-867a-9f984e0ba727</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d49172e53cf6d208e4fd14127912e4fabc3b69d8.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2c89adcf308c580e42a55e62df853dea6c0868af.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542495</t>
@@ -15512,7 +15512,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/054de79c-1280-6695-66d5-57a731007fcf</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/69eaf714bde49264293b3fa961650d90c82f0175.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c8ae00eac49d53fa4e4a8a86e73353dad094c5cc.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542496</t>
@@ -15542,7 +15542,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/bc922eab-2da6-9865-0661-d1226e7604b9</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9fd12a47426500c54dfad5a620774b0452a84c6a.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c54701a81568ddbc8dd4dffee2da0e32e5ca2028.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542497</t>
@@ -15572,7 +15572,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/8f3a7f69-57b9-86d7-633a-80a3f48b5765</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/13c3d426b5ed6012c420dd62e276d0cec52daf9f.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/162b92297c620144f71358e1310c00cec53410cf.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542498</t>
@@ -15602,7 +15602,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/0b38e440-1272-971d-30a4-ae94748f55e6</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0fdc119f9120abee653e8b5be5c2456780e3d5a0.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e106b1f8f0cc08b51224134319bc7146548e9618.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542499</t>
@@ -15629,7 +15629,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/50nenshi/document/7ba5b3a7-89e6-238e-384e-edda0b5f1518</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d76bdd8685c93a139c18e9df2b84dbcec40b58ef.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1e3529112cf640cca7e7bae7a1828f54c437283c.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/542500</t>
